--- a/data/input/absenteeism_data_19.xlsx
+++ b/data/input/absenteeism_data_19.xlsx
@@ -476,127 +476,127 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5549</v>
+        <v>27493</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brenda da Mota</t>
+          <t>Guilherme Monteiro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45078</v>
+        <v>45098</v>
       </c>
       <c r="G2" t="n">
-        <v>3738.8</v>
+        <v>8272.280000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2835</v>
+        <v>50186</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Noah Vieira</t>
+          <t>Marina Sales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45078</v>
+        <v>45099</v>
       </c>
       <c r="G3" t="n">
-        <v>5627.35</v>
+        <v>7916.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>50012</v>
+        <v>69749</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alice da Mata</t>
+          <t>Srta. Larissa da Cruz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45099</v>
+        <v>45082</v>
       </c>
       <c r="G4" t="n">
-        <v>10841.67</v>
+        <v>11159.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>86657</v>
+        <v>23886</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carlos Eduardo da Paz</t>
+          <t>Sr. Fernando Martins</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45106</v>
+        <v>45094</v>
       </c>
       <c r="G5" t="n">
-        <v>3163.29</v>
+        <v>4328.51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>22787</v>
+        <v>35326</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alícia Barros</t>
+          <t>Eduarda Novaes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,31 +606,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45080</v>
+        <v>45097</v>
       </c>
       <c r="G6" t="n">
-        <v>3143.76</v>
+        <v>11254.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>63518</v>
+        <v>17095</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Breno Fernandes</t>
+          <t>Nina da Luz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,27 +639,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45103</v>
+        <v>45083</v>
       </c>
       <c r="G7" t="n">
-        <v>5224.11</v>
+        <v>6257.07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>92228</v>
+        <v>11142</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Laura Silva</t>
+          <t>Ana Sophia Carvalho</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,56 +668,56 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45101</v>
+        <v>45088</v>
       </c>
       <c r="G8" t="n">
-        <v>9744.059999999999</v>
+        <v>5675.45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>97101</v>
+        <v>18804</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pedro Lucas Pires</t>
+          <t>Antônio Pereira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45104</v>
+        <v>45096</v>
       </c>
       <c r="G9" t="n">
-        <v>9011.959999999999</v>
+        <v>3819.41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>78231</v>
+        <v>23592</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luiz Felipe Pereira</t>
+          <t>Luigi Santos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>45088</v>
       </c>
       <c r="G10" t="n">
-        <v>3550.85</v>
+        <v>11348.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>66922</v>
+        <v>71361</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dra. Maria Sophia Moreira</t>
+          <t>Luiz Miguel Nunes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45087</v>
+        <v>45104</v>
       </c>
       <c r="G11" t="n">
-        <v>11230.72</v>
+        <v>7685.83</v>
       </c>
     </row>
   </sheetData>
